--- a/Code/Results/Cases/Case_3_166/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_166/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9864568629909077</v>
+        <v>1.018022773874987</v>
       </c>
       <c r="D2">
-        <v>1.006257975552338</v>
+        <v>1.02363140776266</v>
       </c>
       <c r="E2">
-        <v>0.9947637725324134</v>
+        <v>1.019342340285812</v>
       </c>
       <c r="F2">
-        <v>0.9601267718349764</v>
+        <v>1.032005233336023</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035386961686058</v>
+        <v>1.028446458462967</v>
       </c>
       <c r="J2">
-        <v>1.009050332751497</v>
+        <v>1.023233566503164</v>
       </c>
       <c r="K2">
-        <v>1.017630809913031</v>
+        <v>1.026462277794471</v>
       </c>
       <c r="L2">
-        <v>1.006296541583314</v>
+        <v>1.022185871860443</v>
       </c>
       <c r="M2">
-        <v>0.9721710467676649</v>
+        <v>1.034811713168608</v>
       </c>
       <c r="N2">
-        <v>1.010483299963695</v>
+        <v>1.02468667553413</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9907703918949097</v>
+        <v>1.018923337957142</v>
       </c>
       <c r="D3">
-        <v>1.009324040317248</v>
+        <v>1.024279362636225</v>
       </c>
       <c r="E3">
-        <v>0.9981780851500043</v>
+        <v>1.020104939593014</v>
       </c>
       <c r="F3">
-        <v>0.9714231080975517</v>
+        <v>1.034123244324402</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036669198061059</v>
+        <v>1.028627774532127</v>
       </c>
       <c r="J3">
-        <v>1.011515867201474</v>
+        <v>1.023770528337955</v>
       </c>
       <c r="K3">
-        <v>1.0198389923542</v>
+        <v>1.026917585974439</v>
       </c>
       <c r="L3">
-        <v>1.008834330918381</v>
+        <v>1.022754594950167</v>
       </c>
       <c r="M3">
-        <v>0.9824351824550516</v>
+        <v>1.03673490464504</v>
       </c>
       <c r="N3">
-        <v>1.012952335755392</v>
+        <v>1.025224399916316</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9935018755296482</v>
+        <v>1.019506446566109</v>
       </c>
       <c r="D4">
-        <v>1.011264721849437</v>
+        <v>1.024698666396276</v>
       </c>
       <c r="E4">
-        <v>1.000346155835864</v>
+        <v>1.020599111908618</v>
       </c>
       <c r="F4">
-        <v>0.9784146339459318</v>
+        <v>1.035488244591013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037460875761689</v>
+        <v>1.028743417867088</v>
       </c>
       <c r="J4">
-        <v>1.013073277386716</v>
+        <v>1.024117760876022</v>
       </c>
       <c r="K4">
-        <v>1.021229066464968</v>
+        <v>1.027211551032819</v>
       </c>
       <c r="L4">
-        <v>1.010440404856342</v>
+        <v>1.023122658112442</v>
       </c>
       <c r="M4">
-        <v>0.98878075099115</v>
+        <v>1.037973504155172</v>
       </c>
       <c r="N4">
-        <v>1.014511957641734</v>
+        <v>1.025572125564415</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9946365100851622</v>
+        <v>1.019751676810899</v>
       </c>
       <c r="D5">
-        <v>1.012070675932516</v>
+        <v>1.024874949268084</v>
       </c>
       <c r="E5">
-        <v>1.001248158846612</v>
+        <v>1.020807033361278</v>
       </c>
       <c r="F5">
-        <v>0.9812841257667591</v>
+        <v>1.036060805471205</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037785043366394</v>
+        <v>1.028791633196816</v>
       </c>
       <c r="J5">
-        <v>1.013719297616178</v>
+        <v>1.024263684993294</v>
       </c>
       <c r="K5">
-        <v>1.021804566346043</v>
+        <v>1.02733497832473</v>
       </c>
       <c r="L5">
-        <v>1.011107320332449</v>
+        <v>1.023277406033094</v>
       </c>
       <c r="M5">
-        <v>0.9913833884301668</v>
+        <v>1.038492842756571</v>
       </c>
       <c r="N5">
-        <v>1.015158895294022</v>
+        <v>1.025718256910672</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9948262345726526</v>
+        <v>1.019792857394907</v>
       </c>
       <c r="D6">
-        <v>1.012205430430671</v>
+        <v>1.024904548367578</v>
       </c>
       <c r="E6">
-        <v>1.00139906615145</v>
+        <v>1.020841954314596</v>
       </c>
       <c r="F6">
-        <v>0.9817620055465338</v>
+        <v>1.036156866464221</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037838977074651</v>
+        <v>1.028799705273007</v>
       </c>
       <c r="J6">
-        <v>1.013827266396362</v>
+        <v>1.024288183209638</v>
       </c>
       <c r="K6">
-        <v>1.021900684878031</v>
+        <v>1.027355693182514</v>
       </c>
       <c r="L6">
-        <v>1.011218822605463</v>
+        <v>1.023303389705714</v>
       </c>
       <c r="M6">
-        <v>0.9918167236326544</v>
+        <v>1.038579962542896</v>
       </c>
       <c r="N6">
-        <v>1.015267017402258</v>
+        <v>1.025742789917292</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.993517089567765</v>
+        <v>1.019509722986091</v>
       </c>
       <c r="D7">
-        <v>1.011275529416181</v>
+        <v>1.024701021867536</v>
       </c>
       <c r="E7">
-        <v>1.000358245068131</v>
+        <v>1.020601889492818</v>
       </c>
       <c r="F7">
-        <v>0.9784532425049667</v>
+        <v>1.03549590019093</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037465240756751</v>
+        <v>1.028744063697477</v>
       </c>
       <c r="J7">
-        <v>1.013081943316875</v>
+        <v>1.024119710927721</v>
       </c>
       <c r="K7">
-        <v>1.02123679075101</v>
+        <v>1.027213200885925</v>
       </c>
       <c r="L7">
-        <v>1.010449348297372</v>
+        <v>1.023124725806726</v>
       </c>
       <c r="M7">
-        <v>0.9888157760043889</v>
+        <v>1.037980448926717</v>
       </c>
       <c r="N7">
-        <v>1.014520635878509</v>
+        <v>1.025574078385411</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9879273700313546</v>
+        <v>1.018327044089732</v>
       </c>
       <c r="D8">
-        <v>1.007303410282913</v>
+        <v>1.023850379900607</v>
       </c>
       <c r="E8">
-        <v>0.9959264500975902</v>
+        <v>1.019599914790248</v>
       </c>
       <c r="F8">
-        <v>0.9640143854049631</v>
+        <v>1.032722181001849</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03582845815415</v>
+        <v>1.028508083682836</v>
       </c>
       <c r="J8">
-        <v>1.009891665318272</v>
+        <v>1.023415080146007</v>
       </c>
       <c r="K8">
-        <v>1.018385352759003</v>
+        <v>1.026616285836355</v>
       </c>
       <c r="L8">
-        <v>1.007161884413849</v>
+        <v>1.022378061499326</v>
       </c>
       <c r="M8">
-        <v>0.9757049239199521</v>
+        <v>1.03546288968036</v>
       </c>
       <c r="N8">
-        <v>1.011325827319217</v>
+        <v>1.024868446947165</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9775908557199382</v>
+        <v>1.016245966409975</v>
       </c>
       <c r="D9">
-        <v>0.9999497626279363</v>
+        <v>1.022351717458747</v>
       </c>
       <c r="E9">
-        <v>0.9877807359049792</v>
+        <v>1.017839855292733</v>
       </c>
       <c r="F9">
-        <v>0.9357923660588633</v>
+        <v>1.027791086241886</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032629451003276</v>
+        <v>1.028079335605302</v>
       </c>
       <c r="J9">
-        <v>1.003960535583699</v>
+        <v>1.022171777163913</v>
       </c>
       <c r="K9">
-        <v>1.013043654950981</v>
+        <v>1.025559470077662</v>
       </c>
       <c r="L9">
-        <v>1.001075222809782</v>
+        <v>1.021062834544836</v>
       </c>
       <c r="M9">
-        <v>0.950020796216392</v>
+        <v>1.030980677161311</v>
       </c>
       <c r="N9">
-        <v>1.005386274700111</v>
+        <v>1.023623378332228</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9703254992564346</v>
+        <v>1.014860586902881</v>
       </c>
       <c r="D10">
-        <v>0.994771699762443</v>
+        <v>1.021352819124251</v>
       </c>
       <c r="E10">
-        <v>0.9820912007538437</v>
+        <v>1.016670259890304</v>
       </c>
       <c r="F10">
-        <v>0.9145062146612754</v>
+        <v>1.024472551623224</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030244635737571</v>
+        <v>1.027784740812327</v>
       </c>
       <c r="J10">
-        <v>0.9997680271796401</v>
+        <v>1.021341812561962</v>
       </c>
       <c r="K10">
-        <v>1.009235998817676</v>
+        <v>1.024851579807311</v>
       </c>
       <c r="L10">
-        <v>0.9967915118650352</v>
+        <v>1.020186373416403</v>
       </c>
       <c r="M10">
-        <v>0.9306120474448677</v>
+        <v>1.027959848401208</v>
       </c>
       <c r="N10">
-        <v>1.001187812453231</v>
+        <v>1.022792235085344</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9670781379150423</v>
+        <v>1.014261181118672</v>
       </c>
       <c r="D11">
-        <v>0.9924536417083779</v>
+        <v>1.020920338830324</v>
       </c>
       <c r="E11">
-        <v>0.9795571914114473</v>
+        <v>1.01616471745988</v>
       </c>
       <c r="F11">
-        <v>0.9045173247892291</v>
+        <v>1.023027770426932</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029140087480725</v>
+        <v>1.027655082125253</v>
       </c>
       <c r="J11">
-        <v>0.9978876686737346</v>
+        <v>1.020982171290274</v>
       </c>
       <c r="K11">
-        <v>1.007519288426327</v>
+        <v>1.024544260443346</v>
       </c>
       <c r="L11">
-        <v>0.9948752083353559</v>
+        <v>1.019806945633585</v>
       </c>
       <c r="M11">
-        <v>0.9214964005689408</v>
+        <v>1.026643639923199</v>
       </c>
       <c r="N11">
-        <v>0.9993047836225667</v>
+        <v>1.022432083081798</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9658554020966353</v>
+        <v>1.014038606282244</v>
       </c>
       <c r="D12">
-        <v>0.991580081105218</v>
+        <v>1.020759704011367</v>
       </c>
       <c r="E12">
-        <v>0.9786044454618962</v>
+        <v>1.015977072406366</v>
       </c>
       <c r="F12">
-        <v>0.9006697473664774</v>
+        <v>1.02248989977004</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028717649774188</v>
+        <v>1.027606604450699</v>
       </c>
       <c r="J12">
-        <v>0.9971785722635617</v>
+        <v>1.020848545394667</v>
       </c>
       <c r="K12">
-        <v>1.006870391071006</v>
+        <v>1.024429988209711</v>
       </c>
       <c r="L12">
-        <v>0.9941533597968636</v>
+        <v>1.019666022456809</v>
       </c>
       <c r="M12">
-        <v>0.9179841345462548</v>
+        <v>1.026153479038948</v>
       </c>
       <c r="N12">
-        <v>0.9985946802141568</v>
+        <v>1.022298267422092</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9661184538048982</v>
+        <v>1.0140863461179</v>
       </c>
       <c r="D13">
-        <v>0.9917680506049633</v>
+        <v>1.020794160377416</v>
       </c>
       <c r="E13">
-        <v>0.9788093499680656</v>
+        <v>1.016017316746106</v>
       </c>
       <c r="F13">
-        <v>0.9015016852432438</v>
+        <v>1.022605330425918</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028808840007639</v>
+        <v>1.027617017432054</v>
       </c>
       <c r="J13">
-        <v>0.9973311738999737</v>
+        <v>1.020877210371208</v>
       </c>
       <c r="K13">
-        <v>1.007010109130531</v>
+        <v>1.024454505432</v>
       </c>
       <c r="L13">
-        <v>0.9943086684102421</v>
+        <v>1.019696250354429</v>
       </c>
       <c r="M13">
-        <v>0.9187436151154781</v>
+        <v>1.02625867791015</v>
       </c>
       <c r="N13">
-        <v>0.9987474985623962</v>
+        <v>1.022326973106188</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9669774114515181</v>
+        <v>1.014242781560833</v>
       </c>
       <c r="D14">
-        <v>0.9923816959146674</v>
+        <v>1.020907060549526</v>
       </c>
       <c r="E14">
-        <v>0.9794786777449914</v>
+        <v>1.016149203884715</v>
       </c>
       <c r="F14">
-        <v>0.9042022275957283</v>
+        <v>1.022983334868102</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029105425805931</v>
+        <v>1.027651081414727</v>
       </c>
       <c r="J14">
-        <v>0.9978292775227573</v>
+        <v>1.020971126529373</v>
       </c>
       <c r="K14">
-        <v>1.007465886298846</v>
+        <v>1.024534817117003</v>
       </c>
       <c r="L14">
-        <v>0.9948157504098993</v>
+        <v>1.019795296608826</v>
       </c>
       <c r="M14">
-        <v>0.9212087840567081</v>
+        <v>1.026603149030171</v>
       </c>
       <c r="N14">
-        <v>0.9992463095494574</v>
+        <v>1.02242102263607</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9675044121568931</v>
+        <v>1.014339176033733</v>
       </c>
       <c r="D15">
-        <v>0.9927580848511844</v>
+        <v>1.020976623087192</v>
       </c>
       <c r="E15">
-        <v>0.979889517932104</v>
+        <v>1.016230481933781</v>
       </c>
       <c r="F15">
-        <v>0.9058471941167676</v>
+        <v>1.023216073797899</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029286504330926</v>
+        <v>1.027672027349448</v>
       </c>
       <c r="J15">
-        <v>0.9981347351346612</v>
+        <v>1.021028986194181</v>
       </c>
       <c r="K15">
-        <v>1.007745182432858</v>
+        <v>1.024584283870308</v>
       </c>
       <c r="L15">
-        <v>0.9951268216318575</v>
+        <v>1.019856324033088</v>
       </c>
       <c r="M15">
-        <v>0.9227102459833592</v>
+        <v>1.026815220710173</v>
       </c>
       <c r="N15">
-        <v>0.9995522009462067</v>
+        <v>1.022478964468239</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.970538774455329</v>
+        <v>1.014900377462347</v>
       </c>
       <c r="D16">
-        <v>0.9949238513790986</v>
+        <v>1.021381522474232</v>
       </c>
       <c r="E16">
-        <v>0.9822578161446951</v>
+        <v>1.016703830099359</v>
       </c>
       <c r="F16">
-        <v>0.9151511938421624</v>
+        <v>1.024568268744666</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03031631784761</v>
+        <v>1.027793301512391</v>
       </c>
       <c r="J16">
-        <v>0.9998913797600703</v>
+        <v>1.021365675277528</v>
       </c>
       <c r="K16">
-        <v>1.009348416875495</v>
+        <v>1.024871958746135</v>
       </c>
       <c r="L16">
-        <v>0.9969173300118296</v>
+        <v>1.020211556621819</v>
       </c>
       <c r="M16">
-        <v>0.9312004925482956</v>
+        <v>1.028047025719338</v>
       </c>
       <c r="N16">
-        <v>1.001311340208474</v>
+        <v>1.022816131688703</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9724141563780924</v>
+        <v>1.015252530949751</v>
       </c>
       <c r="D17">
-        <v>0.996261329730025</v>
+        <v>1.021635518515573</v>
       </c>
       <c r="E17">
-        <v>0.9837239357734183</v>
+        <v>1.017000990368526</v>
       </c>
       <c r="F17">
-        <v>0.9207673824589818</v>
+        <v>1.025414341200626</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030942185108654</v>
+        <v>1.02786881100408</v>
       </c>
       <c r="J17">
-        <v>1.00097530800407</v>
+        <v>1.021576801622126</v>
       </c>
       <c r="K17">
-        <v>1.01033523047533</v>
+        <v>1.025052195747516</v>
       </c>
       <c r="L17">
-        <v>0.9980234913771771</v>
+        <v>1.020434407810202</v>
       </c>
       <c r="M17">
-        <v>0.9363235603435349</v>
+        <v>1.028817492647139</v>
       </c>
       <c r="N17">
-        <v>1.002396807754908</v>
+        <v>1.023027557856926</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9734983467641981</v>
+        <v>1.015457981720653</v>
       </c>
       <c r="D18">
-        <v>0.9970342194358525</v>
+        <v>1.021783674851828</v>
       </c>
       <c r="E18">
-        <v>0.9845723758705144</v>
+        <v>1.017174405728297</v>
       </c>
       <c r="F18">
-        <v>0.923970434939712</v>
+        <v>1.025907087676084</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031300411770769</v>
+        <v>1.027912652173242</v>
       </c>
       <c r="J18">
-        <v>1.001601343728079</v>
+        <v>1.02169992284653</v>
       </c>
       <c r="K18">
-        <v>1.010904343243258</v>
+        <v>1.025157247942644</v>
       </c>
       <c r="L18">
-        <v>0.9986628321770535</v>
+        <v>1.020564401383881</v>
       </c>
       <c r="M18">
-        <v>0.9392446523659606</v>
+        <v>1.029266107111518</v>
       </c>
       <c r="N18">
-        <v>1.003023732521453</v>
+        <v>1.023150853927591</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9738664199951091</v>
+        <v>1.015528042853551</v>
       </c>
       <c r="D19">
-        <v>0.9972965574739987</v>
+        <v>1.021834193130854</v>
       </c>
       <c r="E19">
-        <v>0.9848605571731912</v>
+        <v>1.017233550586223</v>
       </c>
       <c r="F19">
-        <v>0.9250508060138715</v>
+        <v>1.026074974852069</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031421434995463</v>
+        <v>1.027927566622843</v>
       </c>
       <c r="J19">
-        <v>1.001813778041615</v>
+        <v>1.021741899723731</v>
       </c>
       <c r="K19">
-        <v>1.011097324625703</v>
+        <v>1.025193054971995</v>
       </c>
       <c r="L19">
-        <v>0.998879858565847</v>
+        <v>1.020608727221348</v>
       </c>
       <c r="M19">
-        <v>0.9402297945329027</v>
+        <v>1.029418940806923</v>
       </c>
       <c r="N19">
-        <v>1.003236468516081</v>
+        <v>1.023192890416773</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9722139563386842</v>
+        <v>1.015214743495838</v>
       </c>
       <c r="D20">
-        <v>0.9961185870825839</v>
+        <v>1.021608266652104</v>
       </c>
       <c r="E20">
-        <v>0.9835673365219492</v>
+        <v>1.016969098900741</v>
       </c>
       <c r="F20">
-        <v>0.9201724818008729</v>
+        <v>1.025323643818534</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030875750776202</v>
+        <v>1.027860730480272</v>
       </c>
       <c r="J20">
-        <v>1.000859660038379</v>
+        <v>1.021554152369273</v>
       </c>
       <c r="K20">
-        <v>1.01023003154748</v>
+        <v>1.025032865988944</v>
       </c>
       <c r="L20">
-        <v>0.9979054227371659</v>
+        <v>1.020410497131569</v>
       </c>
       <c r="M20">
-        <v>0.9357809685643139</v>
+        <v>1.028734910374467</v>
       </c>
       <c r="N20">
-        <v>1.002280995555841</v>
+        <v>1.023004876439537</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9667249373471172</v>
+        <v>1.014196713256483</v>
       </c>
       <c r="D21">
-        <v>0.9922013488301668</v>
+        <v>1.020873814050909</v>
       </c>
       <c r="E21">
-        <v>0.979281903214701</v>
+        <v>1.016110362652282</v>
       </c>
       <c r="F21">
-        <v>0.9034109754305983</v>
+        <v>1.022872055815644</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029018437006697</v>
+        <v>1.027641059175272</v>
       </c>
       <c r="J21">
-        <v>0.9976829003719506</v>
+        <v>1.020943471640493</v>
       </c>
       <c r="K21">
-        <v>1.007331990795415</v>
+        <v>1.024511170645762</v>
       </c>
       <c r="L21">
-        <v>0.9946667121760489</v>
+        <v>1.019766129588775</v>
       </c>
       <c r="M21">
-        <v>0.9204865233013956</v>
+        <v>1.026501746005341</v>
       </c>
       <c r="N21">
-        <v>0.9990997245263069</v>
+        <v>1.022393328474076</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.963177370088665</v>
+        <v>1.013557049010641</v>
       </c>
       <c r="D22">
-        <v>0.9896651720962616</v>
+        <v>1.020412078713231</v>
       </c>
       <c r="E22">
-        <v>0.976520335091963</v>
+        <v>1.015571227773718</v>
       </c>
       <c r="F22">
-        <v>0.8920627479884171</v>
+        <v>1.021323598758105</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027779359543975</v>
+        <v>1.027501110167974</v>
       </c>
       <c r="J22">
-        <v>0.9956233564800471</v>
+        <v>1.020559286169079</v>
       </c>
       <c r="K22">
-        <v>1.005444182240048</v>
+        <v>1.024182464867103</v>
       </c>
       <c r="L22">
-        <v>0.9925717334440339</v>
+        <v>1.019361066634459</v>
       </c>
       <c r="M22">
-        <v>0.9101254334720793</v>
+        <v>1.025090344974615</v>
       </c>
       <c r="N22">
-        <v>0.9970372558458439</v>
+        <v>1.022008597415226</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9650676325513179</v>
+        <v>1.013896108054482</v>
       </c>
       <c r="D23">
-        <v>0.9910170355349759</v>
+        <v>1.020656849101142</v>
       </c>
       <c r="E23">
-        <v>0.9779910172514894</v>
+        <v>1.01585695858086</v>
       </c>
       <c r="F23">
-        <v>0.8981642211045124</v>
+        <v>1.022145145797456</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028443530778365</v>
+        <v>1.027575474064859</v>
       </c>
       <c r="J23">
-        <v>0.9967214015285573</v>
+        <v>1.020762971568942</v>
       </c>
       <c r="K23">
-        <v>1.006451579646472</v>
+        <v>1.024356783996384</v>
       </c>
       <c r="L23">
-        <v>0.9936882024429866</v>
+        <v>1.019575790815462</v>
       </c>
       <c r="M23">
-        <v>0.9156966831476068</v>
+        <v>1.025839261262752</v>
       </c>
       <c r="N23">
-        <v>0.9981368602442707</v>
+        <v>1.022212572071719</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9723044479649144</v>
+        <v>1.015231817879331</v>
       </c>
       <c r="D24">
-        <v>0.9961831086293903</v>
+        <v>1.021620580581896</v>
       </c>
       <c r="E24">
-        <v>0.9836381176912228</v>
+        <v>1.016983509014526</v>
       </c>
       <c r="F24">
-        <v>0.9204415151533984</v>
+        <v>1.02536462838764</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030905790603107</v>
+        <v>1.027864382346124</v>
       </c>
       <c r="J24">
-        <v>1.000911935475658</v>
+        <v>1.021564386669906</v>
       </c>
       <c r="K24">
-        <v>1.010277586362336</v>
+        <v>1.025041600512997</v>
       </c>
       <c r="L24">
-        <v>0.9979587909368446</v>
+        <v>1.02042130131289</v>
       </c>
       <c r="M24">
-        <v>0.9360263484052267</v>
+        <v>1.028772228175726</v>
       </c>
       <c r="N24">
-        <v>1.002333345230237</v>
+        <v>1.023015125274051</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9803252753433829</v>
+        <v>1.016783622762638</v>
       </c>
       <c r="D25">
-        <v>1.001896351355813</v>
+        <v>1.022739122239997</v>
       </c>
       <c r="E25">
-        <v>0.989929587223414</v>
+        <v>1.018294210448081</v>
       </c>
       <c r="F25">
-        <v>0.943472179913466</v>
+        <v>1.029071237582558</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033497478466078</v>
+        <v>1.028191716118515</v>
       </c>
       <c r="J25">
-        <v>1.005533411560053</v>
+        <v>1.0224933950495</v>
       </c>
       <c r="K25">
-        <v>1.01446530006774</v>
+        <v>1.025833271928691</v>
       </c>
       <c r="L25">
-        <v>1.002686271214129</v>
+        <v>1.021402791244801</v>
       </c>
       <c r="M25">
-        <v>0.9570163482959009</v>
+        <v>1.03214506469944</v>
       </c>
       <c r="N25">
-        <v>1.006961384340763</v>
+        <v>1.023945452952102</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_166/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_166/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018022773874987</v>
+        <v>0.9864568629909076</v>
       </c>
       <c r="D2">
-        <v>1.02363140776266</v>
+        <v>1.006257975552338</v>
       </c>
       <c r="E2">
-        <v>1.019342340285812</v>
+        <v>0.9947637725324131</v>
       </c>
       <c r="F2">
-        <v>1.032005233336023</v>
+        <v>0.9601267718349763</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028446458462967</v>
+        <v>1.035386961686058</v>
       </c>
       <c r="J2">
-        <v>1.023233566503164</v>
+        <v>1.009050332751497</v>
       </c>
       <c r="K2">
-        <v>1.026462277794471</v>
+        <v>1.01763080991303</v>
       </c>
       <c r="L2">
-        <v>1.022185871860443</v>
+        <v>1.006296541583313</v>
       </c>
       <c r="M2">
-        <v>1.034811713168608</v>
+        <v>0.9721710467676647</v>
       </c>
       <c r="N2">
-        <v>1.02468667553413</v>
+        <v>1.010483299963695</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018923337957142</v>
+        <v>0.9907703918949096</v>
       </c>
       <c r="D3">
-        <v>1.024279362636225</v>
+        <v>1.009324040317248</v>
       </c>
       <c r="E3">
-        <v>1.020104939593014</v>
+        <v>0.9981780851500039</v>
       </c>
       <c r="F3">
-        <v>1.034123244324402</v>
+        <v>0.9714231080975515</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028627774532127</v>
+        <v>1.036669198061059</v>
       </c>
       <c r="J3">
-        <v>1.023770528337955</v>
+        <v>1.011515867201474</v>
       </c>
       <c r="K3">
-        <v>1.026917585974439</v>
+        <v>1.0198389923542</v>
       </c>
       <c r="L3">
-        <v>1.022754594950167</v>
+        <v>1.008834330918381</v>
       </c>
       <c r="M3">
-        <v>1.03673490464504</v>
+        <v>0.9824351824550513</v>
       </c>
       <c r="N3">
-        <v>1.025224399916316</v>
+        <v>1.012952335755392</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019506446566109</v>
+        <v>0.9935018755296487</v>
       </c>
       <c r="D4">
-        <v>1.024698666396276</v>
+        <v>1.011264721849438</v>
       </c>
       <c r="E4">
-        <v>1.020599111908618</v>
+        <v>1.000346155835865</v>
       </c>
       <c r="F4">
-        <v>1.035488244591013</v>
+        <v>0.9784146339459331</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028743417867088</v>
+        <v>1.037460875761689</v>
       </c>
       <c r="J4">
-        <v>1.024117760876022</v>
+        <v>1.013073277386717</v>
       </c>
       <c r="K4">
-        <v>1.027211551032819</v>
+        <v>1.021229066464969</v>
       </c>
       <c r="L4">
-        <v>1.023122658112442</v>
+        <v>1.010440404856343</v>
       </c>
       <c r="M4">
-        <v>1.037973504155172</v>
+        <v>0.9887807509911515</v>
       </c>
       <c r="N4">
-        <v>1.025572125564415</v>
+        <v>1.014511957641735</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019751676810899</v>
+        <v>0.9946365100851617</v>
       </c>
       <c r="D5">
-        <v>1.024874949268084</v>
+        <v>1.012070675932516</v>
       </c>
       <c r="E5">
-        <v>1.020807033361278</v>
+        <v>1.001248158846611</v>
       </c>
       <c r="F5">
-        <v>1.036060805471205</v>
+        <v>0.9812841257667588</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028791633196816</v>
+        <v>1.037785043366394</v>
       </c>
       <c r="J5">
-        <v>1.024263684993294</v>
+        <v>1.013719297616178</v>
       </c>
       <c r="K5">
-        <v>1.02733497832473</v>
+        <v>1.021804566346043</v>
       </c>
       <c r="L5">
-        <v>1.023277406033094</v>
+        <v>1.011107320332448</v>
       </c>
       <c r="M5">
-        <v>1.038492842756571</v>
+        <v>0.9913833884301666</v>
       </c>
       <c r="N5">
-        <v>1.025718256910672</v>
+        <v>1.015158895294021</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019792857394907</v>
+        <v>0.9948262345726531</v>
       </c>
       <c r="D6">
-        <v>1.024904548367578</v>
+        <v>1.012205430430671</v>
       </c>
       <c r="E6">
-        <v>1.020841954314596</v>
+        <v>1.001399066151451</v>
       </c>
       <c r="F6">
-        <v>1.036156866464221</v>
+        <v>0.9817620055465333</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028799705273007</v>
+        <v>1.037838977074651</v>
       </c>
       <c r="J6">
-        <v>1.024288183209638</v>
+        <v>1.013827266396362</v>
       </c>
       <c r="K6">
-        <v>1.027355693182514</v>
+        <v>1.021900684878031</v>
       </c>
       <c r="L6">
-        <v>1.023303389705714</v>
+        <v>1.011218822605463</v>
       </c>
       <c r="M6">
-        <v>1.038579962542896</v>
+        <v>0.9918167236326539</v>
       </c>
       <c r="N6">
-        <v>1.025742789917292</v>
+        <v>1.015267017402258</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019509722986091</v>
+        <v>0.993517089567765</v>
       </c>
       <c r="D7">
-        <v>1.024701021867536</v>
+        <v>1.011275529416181</v>
       </c>
       <c r="E7">
-        <v>1.020601889492818</v>
+        <v>1.00035824506813</v>
       </c>
       <c r="F7">
-        <v>1.03549590019093</v>
+        <v>0.9784532425049672</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028744063697477</v>
+        <v>1.037465240756751</v>
       </c>
       <c r="J7">
-        <v>1.024119710927721</v>
+        <v>1.013081943316875</v>
       </c>
       <c r="K7">
-        <v>1.027213200885925</v>
+        <v>1.02123679075101</v>
       </c>
       <c r="L7">
-        <v>1.023124725806726</v>
+        <v>1.010449348297372</v>
       </c>
       <c r="M7">
-        <v>1.037980448926717</v>
+        <v>0.9888157760043895</v>
       </c>
       <c r="N7">
-        <v>1.025574078385411</v>
+        <v>1.014520635878509</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018327044089732</v>
+        <v>0.9879273700313546</v>
       </c>
       <c r="D8">
-        <v>1.023850379900607</v>
+        <v>1.007303410282913</v>
       </c>
       <c r="E8">
-        <v>1.019599914790248</v>
+        <v>0.9959264500975902</v>
       </c>
       <c r="F8">
-        <v>1.032722181001849</v>
+        <v>0.9640143854049633</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028508083682836</v>
+        <v>1.03582845815415</v>
       </c>
       <c r="J8">
-        <v>1.023415080146007</v>
+        <v>1.009891665318272</v>
       </c>
       <c r="K8">
-        <v>1.026616285836355</v>
+        <v>1.018385352759003</v>
       </c>
       <c r="L8">
-        <v>1.022378061499326</v>
+        <v>1.007161884413849</v>
       </c>
       <c r="M8">
-        <v>1.03546288968036</v>
+        <v>0.9757049239199523</v>
       </c>
       <c r="N8">
-        <v>1.024868446947165</v>
+        <v>1.011325827319217</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.016245966409975</v>
+        <v>0.977590855719938</v>
       </c>
       <c r="D9">
-        <v>1.022351717458747</v>
+        <v>0.9999497626279358</v>
       </c>
       <c r="E9">
-        <v>1.017839855292733</v>
+        <v>0.9877807359049791</v>
       </c>
       <c r="F9">
-        <v>1.027791086241886</v>
+        <v>0.9357923660588628</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028079335605302</v>
+        <v>1.032629451003276</v>
       </c>
       <c r="J9">
-        <v>1.022171777163913</v>
+        <v>1.003960535583698</v>
       </c>
       <c r="K9">
-        <v>1.025559470077662</v>
+        <v>1.013043654950981</v>
       </c>
       <c r="L9">
-        <v>1.021062834544836</v>
+        <v>1.001075222809782</v>
       </c>
       <c r="M9">
-        <v>1.030980677161311</v>
+        <v>0.9500207962163916</v>
       </c>
       <c r="N9">
-        <v>1.023623378332228</v>
+        <v>1.005386274700111</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014860586902881</v>
+        <v>0.9703254992564352</v>
       </c>
       <c r="D10">
-        <v>1.021352819124251</v>
+        <v>0.9947716997624432</v>
       </c>
       <c r="E10">
-        <v>1.016670259890304</v>
+        <v>0.9820912007538436</v>
       </c>
       <c r="F10">
-        <v>1.024472551623224</v>
+        <v>0.914506214661276</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027784740812327</v>
+        <v>1.030244635737571</v>
       </c>
       <c r="J10">
-        <v>1.021341812561962</v>
+        <v>0.9997680271796405</v>
       </c>
       <c r="K10">
-        <v>1.024851579807311</v>
+        <v>1.009235998817676</v>
       </c>
       <c r="L10">
-        <v>1.020186373416403</v>
+        <v>0.9967915118650353</v>
       </c>
       <c r="M10">
-        <v>1.027959848401208</v>
+        <v>0.9306120474448683</v>
       </c>
       <c r="N10">
-        <v>1.022792235085344</v>
+        <v>1.001187812453231</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014261181118672</v>
+        <v>0.9670781379150422</v>
       </c>
       <c r="D11">
-        <v>1.020920338830324</v>
+        <v>0.992453641708378</v>
       </c>
       <c r="E11">
-        <v>1.01616471745988</v>
+        <v>0.979557191411447</v>
       </c>
       <c r="F11">
-        <v>1.023027770426932</v>
+        <v>0.9045173247892294</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027655082125253</v>
+        <v>1.029140087480725</v>
       </c>
       <c r="J11">
-        <v>1.020982171290274</v>
+        <v>0.9978876686737346</v>
       </c>
       <c r="K11">
-        <v>1.024544260443346</v>
+        <v>1.007519288426327</v>
       </c>
       <c r="L11">
-        <v>1.019806945633585</v>
+        <v>0.9948752083353556</v>
       </c>
       <c r="M11">
-        <v>1.026643639923199</v>
+        <v>0.9214964005689413</v>
       </c>
       <c r="N11">
-        <v>1.022432083081798</v>
+        <v>0.9993047836225666</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014038606282244</v>
+        <v>0.9658554020966342</v>
       </c>
       <c r="D12">
-        <v>1.020759704011367</v>
+        <v>0.9915800811052174</v>
       </c>
       <c r="E12">
-        <v>1.015977072406366</v>
+        <v>0.9786044454618948</v>
       </c>
       <c r="F12">
-        <v>1.02248989977004</v>
+        <v>0.9006697473664764</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027606604450699</v>
+        <v>1.028717649774187</v>
       </c>
       <c r="J12">
-        <v>1.020848545394667</v>
+        <v>0.9971785722635607</v>
       </c>
       <c r="K12">
-        <v>1.024429988209711</v>
+        <v>1.006870391071005</v>
       </c>
       <c r="L12">
-        <v>1.019666022456809</v>
+        <v>0.9941533597968623</v>
       </c>
       <c r="M12">
-        <v>1.026153479038948</v>
+        <v>0.917984134546254</v>
       </c>
       <c r="N12">
-        <v>1.022298267422092</v>
+        <v>0.9985946802141561</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0140863461179</v>
+        <v>0.9661184538048982</v>
       </c>
       <c r="D13">
-        <v>1.020794160377416</v>
+        <v>0.9917680506049631</v>
       </c>
       <c r="E13">
-        <v>1.016017316746106</v>
+        <v>0.9788093499680656</v>
       </c>
       <c r="F13">
-        <v>1.022605330425918</v>
+        <v>0.9015016852432438</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027617017432054</v>
+        <v>1.028808840007638</v>
       </c>
       <c r="J13">
-        <v>1.020877210371208</v>
+        <v>0.9973311738999737</v>
       </c>
       <c r="K13">
-        <v>1.024454505432</v>
+        <v>1.007010109130531</v>
       </c>
       <c r="L13">
-        <v>1.019696250354429</v>
+        <v>0.994308668410242</v>
       </c>
       <c r="M13">
-        <v>1.02625867791015</v>
+        <v>0.9187436151154779</v>
       </c>
       <c r="N13">
-        <v>1.022326973106188</v>
+        <v>0.9987474985623963</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014242781560833</v>
+        <v>0.9669774114515181</v>
       </c>
       <c r="D14">
-        <v>1.020907060549526</v>
+        <v>0.9923816959146677</v>
       </c>
       <c r="E14">
-        <v>1.016149203884715</v>
+        <v>0.9794786777449919</v>
       </c>
       <c r="F14">
-        <v>1.022983334868102</v>
+        <v>0.9042022275957297</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027651081414727</v>
+        <v>1.029105425805931</v>
       </c>
       <c r="J14">
-        <v>1.020971126529373</v>
+        <v>0.9978292775227576</v>
       </c>
       <c r="K14">
-        <v>1.024534817117003</v>
+        <v>1.007465886298846</v>
       </c>
       <c r="L14">
-        <v>1.019795296608826</v>
+        <v>0.9948157504098998</v>
       </c>
       <c r="M14">
-        <v>1.026603149030171</v>
+        <v>0.9212087840567093</v>
       </c>
       <c r="N14">
-        <v>1.02242102263607</v>
+        <v>0.9992463095494576</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014339176033733</v>
+        <v>0.9675044121568934</v>
       </c>
       <c r="D15">
-        <v>1.020976623087192</v>
+        <v>0.992758084851185</v>
       </c>
       <c r="E15">
-        <v>1.016230481933781</v>
+        <v>0.9798895179321043</v>
       </c>
       <c r="F15">
-        <v>1.023216073797899</v>
+        <v>0.9058471941167675</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027672027349448</v>
+        <v>1.029286504330926</v>
       </c>
       <c r="J15">
-        <v>1.021028986194181</v>
+        <v>0.9981347351346614</v>
       </c>
       <c r="K15">
-        <v>1.024584283870308</v>
+        <v>1.007745182432858</v>
       </c>
       <c r="L15">
-        <v>1.019856324033088</v>
+        <v>0.9951268216318577</v>
       </c>
       <c r="M15">
-        <v>1.026815220710173</v>
+        <v>0.9227102459833596</v>
       </c>
       <c r="N15">
-        <v>1.022478964468239</v>
+        <v>0.999552200946207</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014900377462347</v>
+        <v>0.9705387744553299</v>
       </c>
       <c r="D16">
-        <v>1.021381522474232</v>
+        <v>0.9949238513790991</v>
       </c>
       <c r="E16">
-        <v>1.016703830099359</v>
+        <v>0.9822578161446955</v>
       </c>
       <c r="F16">
-        <v>1.024568268744666</v>
+        <v>0.9151511938421623</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027793301512391</v>
+        <v>1.030316317847611</v>
       </c>
       <c r="J16">
-        <v>1.021365675277528</v>
+        <v>0.9998913797600709</v>
       </c>
       <c r="K16">
-        <v>1.024871958746135</v>
+        <v>1.009348416875495</v>
       </c>
       <c r="L16">
-        <v>1.020211556621819</v>
+        <v>0.9969173300118302</v>
       </c>
       <c r="M16">
-        <v>1.028047025719338</v>
+        <v>0.9312004925482956</v>
       </c>
       <c r="N16">
-        <v>1.022816131688703</v>
+        <v>1.001311340208474</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015252530949751</v>
+        <v>0.9724141563780938</v>
       </c>
       <c r="D17">
-        <v>1.021635518515573</v>
+        <v>0.9962613297300261</v>
       </c>
       <c r="E17">
-        <v>1.017000990368526</v>
+        <v>0.9837239357734194</v>
       </c>
       <c r="F17">
-        <v>1.025414341200626</v>
+        <v>0.9207673824589819</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02786881100408</v>
+        <v>1.030942185108654</v>
       </c>
       <c r="J17">
-        <v>1.021576801622126</v>
+        <v>1.000975308004072</v>
       </c>
       <c r="K17">
-        <v>1.025052195747516</v>
+        <v>1.010335230475331</v>
       </c>
       <c r="L17">
-        <v>1.020434407810202</v>
+        <v>0.9980234913771783</v>
       </c>
       <c r="M17">
-        <v>1.028817492647139</v>
+        <v>0.9363235603435349</v>
       </c>
       <c r="N17">
-        <v>1.023027557856926</v>
+        <v>1.00239680775491</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015457981720653</v>
+        <v>0.9734983467641982</v>
       </c>
       <c r="D18">
-        <v>1.021783674851828</v>
+        <v>0.9970342194358526</v>
       </c>
       <c r="E18">
-        <v>1.017174405728297</v>
+        <v>0.9845723758705144</v>
       </c>
       <c r="F18">
-        <v>1.025907087676084</v>
+        <v>0.9239704349397119</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027912652173242</v>
+        <v>1.031300411770769</v>
       </c>
       <c r="J18">
-        <v>1.02169992284653</v>
+        <v>1.001601343728079</v>
       </c>
       <c r="K18">
-        <v>1.025157247942644</v>
+        <v>1.010904343243259</v>
       </c>
       <c r="L18">
-        <v>1.020564401383881</v>
+        <v>0.9986628321770536</v>
       </c>
       <c r="M18">
-        <v>1.029266107111518</v>
+        <v>0.9392446523659602</v>
       </c>
       <c r="N18">
-        <v>1.023150853927591</v>
+        <v>1.003023732521453</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015528042853551</v>
+        <v>0.9738664199951087</v>
       </c>
       <c r="D19">
-        <v>1.021834193130854</v>
+        <v>0.9972965574739987</v>
       </c>
       <c r="E19">
-        <v>1.017233550586223</v>
+        <v>0.9848605571731908</v>
       </c>
       <c r="F19">
-        <v>1.026074974852069</v>
+        <v>0.9250508060138704</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027927566622843</v>
+        <v>1.031421434995463</v>
       </c>
       <c r="J19">
-        <v>1.021741899723731</v>
+        <v>1.001813778041615</v>
       </c>
       <c r="K19">
-        <v>1.025193054971995</v>
+        <v>1.011097324625702</v>
       </c>
       <c r="L19">
-        <v>1.020608727221348</v>
+        <v>0.9988798585658465</v>
       </c>
       <c r="M19">
-        <v>1.029418940806923</v>
+        <v>0.9402297945329017</v>
       </c>
       <c r="N19">
-        <v>1.023192890416773</v>
+        <v>1.003236468516081</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015214743495838</v>
+        <v>0.9722139563386842</v>
       </c>
       <c r="D20">
-        <v>1.021608266652104</v>
+        <v>0.9961185870825838</v>
       </c>
       <c r="E20">
-        <v>1.016969098900741</v>
+        <v>0.9835673365219491</v>
       </c>
       <c r="F20">
-        <v>1.025323643818534</v>
+        <v>0.9201724818008735</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027860730480272</v>
+        <v>1.030875750776202</v>
       </c>
       <c r="J20">
-        <v>1.021554152369273</v>
+        <v>1.000859660038379</v>
       </c>
       <c r="K20">
-        <v>1.025032865988944</v>
+        <v>1.010230031547479</v>
       </c>
       <c r="L20">
-        <v>1.020410497131569</v>
+        <v>0.9979054227371658</v>
       </c>
       <c r="M20">
-        <v>1.028734910374467</v>
+        <v>0.9357809685643145</v>
       </c>
       <c r="N20">
-        <v>1.023004876439537</v>
+        <v>1.002280995555841</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014196713256483</v>
+        <v>0.9667249373471166</v>
       </c>
       <c r="D21">
-        <v>1.020873814050909</v>
+        <v>0.9922013488301662</v>
       </c>
       <c r="E21">
-        <v>1.016110362652282</v>
+        <v>0.9792819032147003</v>
       </c>
       <c r="F21">
-        <v>1.022872055815644</v>
+        <v>0.9034109754305982</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027641059175272</v>
+        <v>1.029018437006697</v>
       </c>
       <c r="J21">
-        <v>1.020943471640493</v>
+        <v>0.9976829003719502</v>
       </c>
       <c r="K21">
-        <v>1.024511170645762</v>
+        <v>1.007331990795414</v>
       </c>
       <c r="L21">
-        <v>1.019766129588775</v>
+        <v>0.9946667121760483</v>
       </c>
       <c r="M21">
-        <v>1.026501746005341</v>
+        <v>0.9204865233013955</v>
       </c>
       <c r="N21">
-        <v>1.022393328474076</v>
+        <v>0.9990997245263065</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013557049010641</v>
+        <v>0.963177370088665</v>
       </c>
       <c r="D22">
-        <v>1.020412078713231</v>
+        <v>0.9896651720962618</v>
       </c>
       <c r="E22">
-        <v>1.015571227773718</v>
+        <v>0.976520335091963</v>
       </c>
       <c r="F22">
-        <v>1.021323598758105</v>
+        <v>0.892062747988417</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027501110167974</v>
+        <v>1.027779359543975</v>
       </c>
       <c r="J22">
-        <v>1.020559286169079</v>
+        <v>0.9956233564800471</v>
       </c>
       <c r="K22">
-        <v>1.024182464867103</v>
+        <v>1.005444182240048</v>
       </c>
       <c r="L22">
-        <v>1.019361066634459</v>
+        <v>0.9925717334440339</v>
       </c>
       <c r="M22">
-        <v>1.025090344974615</v>
+        <v>0.9101254334720791</v>
       </c>
       <c r="N22">
-        <v>1.022008597415226</v>
+        <v>0.9970372558458439</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013896108054482</v>
+        <v>0.965067632551318</v>
       </c>
       <c r="D23">
-        <v>1.020656849101142</v>
+        <v>0.991017035534976</v>
       </c>
       <c r="E23">
-        <v>1.01585695858086</v>
+        <v>0.9779910172514895</v>
       </c>
       <c r="F23">
-        <v>1.022145145797456</v>
+        <v>0.8981642211045124</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027575474064859</v>
+        <v>1.028443530778365</v>
       </c>
       <c r="J23">
-        <v>1.020762971568942</v>
+        <v>0.9967214015285573</v>
       </c>
       <c r="K23">
-        <v>1.024356783996384</v>
+        <v>1.006451579646472</v>
       </c>
       <c r="L23">
-        <v>1.019575790815462</v>
+        <v>0.9936882024429864</v>
       </c>
       <c r="M23">
-        <v>1.025839261262752</v>
+        <v>0.9156966831476067</v>
       </c>
       <c r="N23">
-        <v>1.022212572071719</v>
+        <v>0.9981368602442707</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015231817879331</v>
+        <v>0.9723044479649148</v>
       </c>
       <c r="D24">
-        <v>1.021620580581896</v>
+        <v>0.9961831086293907</v>
       </c>
       <c r="E24">
-        <v>1.016983509014526</v>
+        <v>0.983638117691223</v>
       </c>
       <c r="F24">
-        <v>1.02536462838764</v>
+        <v>0.920441515153399</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027864382346124</v>
+        <v>1.030905790603107</v>
       </c>
       <c r="J24">
-        <v>1.021564386669906</v>
+        <v>1.000911935475658</v>
       </c>
       <c r="K24">
-        <v>1.025041600512997</v>
+        <v>1.010277586362336</v>
       </c>
       <c r="L24">
-        <v>1.02042130131289</v>
+        <v>0.9979587909368447</v>
       </c>
       <c r="M24">
-        <v>1.028772228175726</v>
+        <v>0.9360263484052271</v>
       </c>
       <c r="N24">
-        <v>1.023015125274051</v>
+        <v>1.002333345230237</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016783622762638</v>
+        <v>0.9803252753433824</v>
       </c>
       <c r="D25">
-        <v>1.022739122239997</v>
+        <v>1.001896351355812</v>
       </c>
       <c r="E25">
-        <v>1.018294210448081</v>
+        <v>0.9899295872234132</v>
       </c>
       <c r="F25">
-        <v>1.029071237582558</v>
+        <v>0.9434721799134672</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028191716118515</v>
+        <v>1.033497478466078</v>
       </c>
       <c r="J25">
-        <v>1.0224933950495</v>
+        <v>1.005533411560052</v>
       </c>
       <c r="K25">
-        <v>1.025833271928691</v>
+        <v>1.014465300067739</v>
       </c>
       <c r="L25">
-        <v>1.021402791244801</v>
+        <v>1.002686271214128</v>
       </c>
       <c r="M25">
-        <v>1.03214506469944</v>
+        <v>0.9570163482959021</v>
       </c>
       <c r="N25">
-        <v>1.023945452952102</v>
+        <v>1.006961384340762</v>
       </c>
     </row>
   </sheetData>
